--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MatJonne\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E548D03-61F5-4F8C-BDBF-6152975648B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opis" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Product Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sprint Backlog #1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Opis" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint Backlog #1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,48 +27,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Text Transformer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dla osób pracujących z danymi tekstowymi nasza aplikacja Text Transformer umożliwi transformacje danych tekstowych (np. zmiana wielkości liter, eliminacja duplikatów, itd.). Aplikacja będzie dostępna poprzez GUI a także zdalne API dzięki czemu będzie można ją zintegrować z istniejącymi narzędziami.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element rejestru produktu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ważność</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pracochłonność</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Value (BV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kryteria akceptacji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jako twórca aplikacji mogę wywołać transformację zdalnie poprzez REST, aby móc  zintegrować narzędzie z moimi innymi aplikacjami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o Wejście w postaci tekstu oraz sekwencji transformacji (nazwy)
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+  <si>
+    <t>Text Transformer</t>
+  </si>
+  <si>
+    <t>Dla osób pracujących z danymi tekstowymi nasza aplikacja Text Transformer umożliwi transformacje danych tekstowych (np. zmiana wielkości liter, eliminacja duplikatów, itd.). Aplikacja będzie dostępna poprzez GUI a także zdalne API dzięki czemu będzie można ją zintegrować z istniejącymi narzędziami.</t>
+  </si>
+  <si>
+    <t>Element rejestru produktu</t>
+  </si>
+  <si>
+    <t>Ważność</t>
+  </si>
+  <si>
+    <t>Pracochłonność</t>
+  </si>
+  <si>
+    <t>Business Value (BV)</t>
+  </si>
+  <si>
+    <t>Kryteria akceptacji</t>
+  </si>
+  <si>
+    <t>Jako twórca aplikacji mogę wywołać transformację zdalnie poprzez REST, aby móc  zintegrować narzędzie z moimi innymi aplikacjami</t>
+  </si>
+  <si>
+    <t>o Wejście w postaci tekstu oraz sekwencji transformacji (nazwy)
 o Wejście i wyjście w formacie JSON
 o REST API umożliwia uruchomienie dowolnej aktualnie zaimplementowanej transformacji oraz sekwencji transformacji</t>
   </si>
   <si>
-    <t xml:space="preserve">Jako użytkownik mogę zmianać wielkości liter – zestaw trzech transformacji (upper, lower, capitalize)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o Zmiana wielkości liter – zestaw trzech transformacji (upper, lower, capitalize)
+    <t>Jako użytkownik mogę zmianać wielkości liter – zestaw trzech transformacji (upper, lower, capitalize)</t>
+  </si>
+  <si>
+    <t>o Zmiana wielkości liter – zestaw trzech transformacji (upper, lower, capitalize)
 • upper - wszystkie litery na wielkie: upper -&gt; UPPER 
 • lower – wszystkie litery na małe: Lower -&gt; lower 
 • capitalize – pierwsza litera w każdym wyrazie na wielką: capitalize text -&gt; Capitalize Text
 • Wsparcie dla liter z alfabetu angielskiego (UTF-8)</t>
   </si>
   <si>
-    <t xml:space="preserve">Jako użytkownik mogę odwracać ciąg znaków z zachowaniem wielkości liter na konkretnych pozycjach (inverse)</t>
+    <t>Jako użytkownik mogę odwracać ciąg znaków z zachowaniem wielkości liter na konkretnych pozycjach (inverse)</t>
   </si>
   <si>
     <t xml:space="preserve">• Zachowanie pozycje wielkich i małych liter: MirEk -&gt; KerIm
@@ -72,14 +77,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Jako użytkownik mogę zamieniać liczby na tekst w języku polskim (Wpłać 100 złotych -&gt; wpłać sto złotych) – wsparcie zakresu liczb do negocjacji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• zamiana liczb całkowitych do 1000
+    <t>Jako użytkownik mogę zamieniać liczby na tekst w języku polskim (Wpłać 100 złotych -&gt; wpłać sto złotych) – wsparcie zakresu liczb do negocjacji</t>
+  </si>
+  <si>
+    <t>• zamiana liczb całkowitych do 1000
 • zamiana liczb zmiennoprzecinkowych do części setnych</t>
   </si>
   <si>
-    <t xml:space="preserve">Jako użytkownik mogę o zamieniać wybrane (predefiniowane) słowa na skróty (Pieczywo to na przykład chleb i bułki -&gt; Pieczywo to np. chleb i bułki) – zakres obsługiwanych skrótów do negocjacji</t>
+    <t>Jako użytkownik mogę o zamieniać wybrane (predefiniowane) słowa na skróty (Pieczywo to na przykład chleb i bułki -&gt; Pieczywo to np. chleb i bułki) – zakres obsługiwanych skrótów do negocjacji</t>
   </si>
   <si>
     <t xml:space="preserve">• Rozwinięcie skrótu: na przykład -&gt; np.
@@ -89,7 +94,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Jako użytkownik mogę rozwijać wybrane skróty do pełnych postaci (Pan Prof. spóźnił się na zajęcia -&gt; Pan Profesor spóźnił się na zajęcia)</t>
+    <t>Jako użytkownik mogę rozwijać wybrane skróty do pełnych postaci (Pan Prof. spóźnił się na zajęcia -&gt; Pan Profesor spóźnił się na zajęcia)</t>
   </si>
   <si>
     <t xml:space="preserve">• prof. -&gt; profesor
@@ -100,7 +105,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Jako użytkownik mogę przekształcać tekst do formatu wspieranego przez Latex (znaki specjalne) -&gt; (John Smith &amp; Sons -&gt; John Smith \&amp; Sons)</t>
+    <t>Jako użytkownik mogę przekształcać tekst do formatu wspieranego przez Latex (znaki specjalne) -&gt; (John Smith &amp; Sons -&gt; John Smith \&amp; Sons)</t>
   </si>
   <si>
     <t xml:space="preserve">• &amp; -&gt; \&amp;
@@ -108,7 +113,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Jako użytkownik mogę eliminować powtarzające się wyrazy w bezpośrednim sąsiedztwie (Wyślij do do mnie wiadomość -&gt; Wyślij do mnie wiadomość)</t>
+    <t>Jako użytkownik mogę eliminować powtarzające się wyrazy w bezpośrednim sąsiedztwie (Wyślij do do mnie wiadomość -&gt; Wyślij do mnie wiadomość)</t>
   </si>
   <si>
     <t xml:space="preserve">• Zamiana dwóch powtarzających się wyrazów na jeden: do do -&gt; do
@@ -118,35 +123,40 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cel sprintu:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zadania</t>
+    <t>Cel sprintu:</t>
+  </si>
+  <si>
+    <t>Zadania</t>
   </si>
   <si>
     <t xml:space="preserve">Pracochłonność </t>
   </si>
   <si>
-    <t xml:space="preserve">Element przekopiowany z zakładki Rejestr Produktu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zadanie nr 1 do elementu rejestru produktu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zadanie nr 2 do elementu rejestru produktu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zadanie nr 3 do elementu rejestru produktu</t>
+    <t>Element przekopiowany z zakładki Rejestr Produktu</t>
+  </si>
+  <si>
+    <t>Zadanie nr 1 do elementu rejestru produktu</t>
+  </si>
+  <si>
+    <t>Zadanie nr 2 do elementu rejestru produktu</t>
+  </si>
+  <si>
+    <t>Zadanie nr 3 do elementu rejestru produktu</t>
+  </si>
+  <si>
+    <t>Jako użytkownik mogę zmienić wszystkie polskie znaki (diakrytyczne) na uniwersalne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• ą -&gt; a
+• ę -&gt; e
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -155,37 +165,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -208,7 +203,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -216,77 +211,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -345,93 +307,393 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:E11" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Element rejestru produktu"/>
-    <tableColumn id="2" name="Ważność"/>
-    <tableColumn id="3" name="Pracochłonność"/>
-    <tableColumn id="4" name="Business Value (BV)"/>
-    <tableColumn id="5" name="Kryteria akceptacji"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela3" displayName="Tabela3" ref="A4:C66" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A4:C66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C68" totalsRowShown="0">
+  <autoFilter ref="A4:C68" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Element rejestru produktu"/>
-    <tableColumn id="2" name="Zadania"/>
-    <tableColumn id="3" name="Pracochłonność "/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność "/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.5"/>
+    <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="25.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="58.16"/>
+    <col min="1" max="1" width="52" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="58.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -448,136 +710,153 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>0.5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>0.5</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>0.5</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>0.5</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>0.5</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -585,43 +864,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:C39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="45.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="48.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="33"/>
+    <col min="1" max="1" width="45.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -632,12 +903,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -645,17 +916,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -663,128 +934,133 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="33" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="43.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
